--- a/biology/Histoire de la zoologie et de la botanique/Erik_Nordenskiöld/Erik_Nordenskiöld.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Erik_Nordenskiöld/Erik_Nordenskiöld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erik_Nordenski%C3%B6ld</t>
+          <t>Erik_Nordenskiöld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Nordenskiöld est un zoologiste et un historien des sciences issu de l'aristocratie  finno-suédoise, né le 23 novembre 1872 à Mäntsälä dans l'Uusimaa et mort le 28 avril 1933.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erik_Nordenski%C3%B6ld</t>
+          <t>Erik_Nordenskiöld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Nordenskiöld est issu d’une longue lignée de scientifiques, d’explorateurs et de lettrés : son arrière-grand-père était militaire et naturaliste amateur, son grand-père était un minéralogiste et un géologue réputé, son oncle, le baron Adolf Erik Nordenskiöld (1832-1901), était un fameux géologue et explorateur, son père était agronome, l’un de ses frères était professeur de chirurgie à l’université Alexandre d'Helsingfors, un autre y enseignait la littérature contemporaine. La maison familiale possédait un cabinet de curiosités et l’une des plus riches bibliothèques privées du pays.
 Il commence à étudier à l’université Alexandre d'Helsingfors en 1890 où il s’intéresse surtout à la géologie et à la zoologie. Il se met aussi à fréquenter la Societas pro Fauna et Flora Fennica. De 1894 à 1920, il fait paraître vingt articles sur des acariens de la famille des Hydrachnidae, il étudie en particulier l’anatomie et la morphologie de tique du genre Ixodes. Il étudie également le système musculaire des papillons.
